--- a/物资/物资采购清单(I4-20200730).xlsx
+++ b/物资/物资采购清单(I4-20200730).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23731\Desktop\intel杯2020\物资\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44AD2AE7-3F50-4D36-9C75-FE351AA11A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730228F5-96B0-4C75-B433-63A492997E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{76E921B7-C338-41B8-9BB4-EE4241594F8F}"/>
+    <workbookView xWindow="1116" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{76E921B7-C338-41B8-9BB4-EE4241594F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,64 +94,64 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>邮费9元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>锂电池充电保护板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wavgat旗舰店</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.tb.cn/h.VHdlyNJ</t>
-  </si>
-  <si>
-    <t>芯片和小元件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>立创商城</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.szlcsc.com/</t>
-  </si>
-  <si>
-    <t>附采购单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>锂电池</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>XT60接口,800mAH 15C 3s 11.1V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>海训模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.tb.cn/h.VHwpJwx?sm=ac6c94</t>
-  </si>
-  <si>
-    <t>扬声器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8欧10W</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市骏丽电子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.tb.cn/h.VHWGA5i?sm=dd9eca</t>
+    <t>MX1.25接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，3，4，5Pin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳华利电子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.VFRsZjM?sm=5a5856</t>
+  </si>
+  <si>
+    <t>电子小元件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市优信电子科技有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.VuHyzWX?sm=a5eb76</t>
+  </si>
+  <si>
+    <t>MX1.25线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Pin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.VvbyxXC?sm=cb9927 </t>
+  </si>
+  <si>
+    <t>wfg旗舰店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式电池</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3300mAH-25C-3S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海讯模型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.Vub8mrU?sm=b5e119</t>
+  </si>
+  <si>
+    <t>BB响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -249,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -272,6 +271,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -281,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,13 +360,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,17 +693,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D0D4B-555E-4A07-B8FA-FCD31A5D73AA}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="35.21875" customWidth="1"/>
     <col min="5" max="5" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
@@ -691,10 +736,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.55" customHeight="1">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
@@ -702,143 +749,153 @@
         <v>17</v>
       </c>
       <c r="E2" s="7">
-        <v>5.68</v>
+        <v>3.44</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="9">
-        <v>5.68</v>
+        <v>3.44</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="26.55" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="7">
-        <v>86.34</v>
+        <v>25.96</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <f>E3+9</f>
-        <v>95.34</v>
-      </c>
-      <c r="H3" s="12">
-        <v>9</v>
-      </c>
+        <v>25.96</v>
+      </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="26.55" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7">
-        <v>54</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="9">
-        <v>54</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:8" ht="26.55" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="7">
-        <v>6.8</v>
+        <v>6.31</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="H5" s="10"/>
+        <v>6.31</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:8" ht="42" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="7">
+        <v>187.24</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>187.24</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
-        <f>G2+G3+G4+G5</f>
-        <v>161.82000000000002</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
+        <f>G2+G3+G4+G5+G6</f>
+        <v>227.55</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>18850124510</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:D6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{5EE13E0E-754D-45B4-A827-CB275B1B5978}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>